--- a/output/ajusteacum.xlsx
+++ b/output/ajusteacum.xlsx
@@ -434,22 +434,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-5318.503699629251</v>
+        <v>-5318.503699629235</v>
       </c>
       <c r="C3">
-        <v>2612.133012896617</v>
+        <v>2612.133008721167</v>
       </c>
       <c r="D3">
-        <v>847.061256852706</v>
+        <v>847.0612574218505</v>
       </c>
       <c r="E3">
         <v>31</v>
       </c>
       <c r="F3">
-        <v>10699.0073992585</v>
+        <v>10699.00739925847</v>
       </c>
       <c r="G3">
-        <v>10852.48265708022</v>
+        <v>10852.48265708019</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -462,22 +462,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-5244.656870301777</v>
+        <v>-5220.635254642758</v>
       </c>
       <c r="C4">
-        <v>2352.125478015413</v>
+        <v>2110.289734076519</v>
       </c>
       <c r="D4">
-        <v>769.5187915650654</v>
+        <v>731.4149608103575</v>
       </c>
       <c r="E4">
         <v>47</v>
       </c>
       <c r="F4">
-        <v>10583.31374060356</v>
+        <v>10535.27050928552</v>
       </c>
       <c r="G4">
-        <v>10816.00203472036</v>
+        <v>10767.95880340232</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -490,22 +490,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-4968.430261249629</v>
+        <v>-4968.576074253863</v>
       </c>
       <c r="C5">
-        <v>2099.578834611483</v>
+        <v>2102.087236060291</v>
       </c>
       <c r="D5">
-        <v>646.8015420523727</v>
+        <v>646.9182203152285</v>
       </c>
       <c r="E5">
         <v>63</v>
       </c>
       <c r="F5">
-        <v>10062.86052249926</v>
+        <v>10063.15214850773</v>
       </c>
       <c r="G5">
-        <v>10374.76185291114</v>
+        <v>10375.05347891961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>-4845.883879931223</v>
+        <v>-4845.883879931207</v>
       </c>
       <c r="C6">
-        <v>1004.606216689831</v>
+        <v>1004.606216689852</v>
       </c>
       <c r="D6">
-        <v>565.4222894737726</v>
+        <v>565.4222894737685</v>
       </c>
       <c r="E6">
         <v>79</v>
       </c>
       <c r="F6">
-        <v>9849.767759862447</v>
+        <v>9849.767759862414</v>
       </c>
       <c r="G6">
-        <v>10240.88212656941</v>
+        <v>10240.88212656938</v>
       </c>
       <c r="H6">
-        <v>0.1828341105111963</v>
+        <v>0.1828341105110729</v>
       </c>
     </row>
   </sheetData>

--- a/output/ajusteacum.xlsx
+++ b/output/ajusteacum.xlsx
@@ -434,22 +434,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-5318.503699629235</v>
+        <v>-5318.503699629186</v>
       </c>
       <c r="C3">
-        <v>2612.133008721167</v>
+        <v>2612.133041276552</v>
       </c>
       <c r="D3">
-        <v>847.0612574218505</v>
+        <v>847.0612529828632</v>
       </c>
       <c r="E3">
         <v>31</v>
       </c>
       <c r="F3">
-        <v>10699.00739925847</v>
+        <v>10699.00739925837</v>
       </c>
       <c r="G3">
-        <v>10852.48265708019</v>
+        <v>10852.48265708009</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -462,22 +462,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-5220.635254642758</v>
+        <v>-5234.051302422444</v>
       </c>
       <c r="C4">
-        <v>2110.289734076519</v>
+        <v>2109.85351103886</v>
       </c>
       <c r="D4">
-        <v>731.4149608103575</v>
+        <v>791.7922408904071</v>
       </c>
       <c r="E4">
         <v>47</v>
       </c>
       <c r="F4">
-        <v>10535.27050928552</v>
+        <v>10562.10260484489</v>
       </c>
       <c r="G4">
-        <v>10767.95880340232</v>
+        <v>10794.79089896169</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -490,22 +490,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>-4968.576074253863</v>
+        <v>-4968.576074253852</v>
       </c>
       <c r="C5">
-        <v>2102.087236060291</v>
+        <v>2102.087432799544</v>
       </c>
       <c r="D5">
-        <v>646.9182203152285</v>
+        <v>646.9182184623421</v>
       </c>
       <c r="E5">
         <v>63</v>
       </c>
       <c r="F5">
-        <v>10063.15214850773</v>
+        <v>10063.15214850771</v>
       </c>
       <c r="G5">
-        <v>10375.05347891961</v>
+        <v>10375.05347891959</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>-4845.883879931207</v>
+        <v>-4845.883879931189</v>
       </c>
       <c r="C6">
-        <v>1004.606216689852</v>
+        <v>1004.606216689875</v>
       </c>
       <c r="D6">
-        <v>565.4222894737685</v>
+        <v>565.4222894737636</v>
       </c>
       <c r="E6">
         <v>79</v>
       </c>
       <c r="F6">
-        <v>9849.767759862414</v>
+        <v>9849.767759862378</v>
       </c>
       <c r="G6">
-        <v>10240.88212656938</v>
+        <v>10240.88212656934</v>
       </c>
       <c r="H6">
-        <v>0.1828341105110729</v>
+        <v>0.1828341105109373</v>
       </c>
     </row>
   </sheetData>
